--- a/biology/Botanique/Congrès_mondial_des_parcs_nationaux/Congrès_mondial_des_parcs_nationaux.xlsx
+++ b/biology/Botanique/Congrès_mondial_des_parcs_nationaux/Congrès_mondial_des_parcs_nationaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_des_parcs_nationaux</t>
+          <t>Congrès_mondial_des_parcs_nationaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le congrès mondial des parcs[1] est une manifestation organisée, au départ tous les dix ans, par l'Union internationale pour la conservation de la nature.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le congrès mondial des parcs est une manifestation organisée, au départ tous les dix ans, par l'Union internationale pour la conservation de la nature.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_des_parcs_nationaux</t>
+          <t>Congrès_mondial_des_parcs_nationaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors du congrès de Sydney, en 2014, est mise en place une liste verte des aires protégées, « distinguées pour leur gouvernance, leur bonne gestion ainsi que leur travail pour la biodiversité et la conservation de la faune et de la flore ». Parmi cinquante candidatures, 23 sites obtiennent ce nouveau label environnemental[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors du congrès de Sydney, en 2014, est mise en place une liste verte des aires protégées, « distinguées pour leur gouvernance, leur bonne gestion ainsi que leur travail pour la biodiversité et la conservation de la faune et de la flore ». Parmi cinquante candidatures, 23 sites obtiennent ce nouveau label environnemental.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Congr%C3%A8s_mondial_des_parcs_nationaux</t>
+          <t>Congrès_mondial_des_parcs_nationaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,17 @@
           <t>Liste des congrès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1962 : Seattle (États-Unis) ;
-1972 : Yellowstone et Grand Teton (États-Unis) ; thème : « Les parcs nationaux, un héritage pour un monde meilleur »[3].
+1972 : Yellowstone et Grand Teton (États-Unis) ; thème : « Les parcs nationaux, un héritage pour un monde meilleur ».
 1982 : Bali (Indonésie) ; thème : « Des parcs pour le développement » ;
 1992 : Caracas (Venezuela) ; thème : « Des parcs pour la vie » ;
 1997 : Albany (Australie) ; thème : « Les aires protégées au XXIe siècle : des îles aux réseaux »
-2003 : Durban (Afrique du Sud) ; thème : « Avantages sans frontières »[4] ;
-2014 : Sydney (Australie) ; thème : « Des parcs, la planète et nous : des solutions sources d’inspiration »[5]. Co-présidé par Ali Bongo Ondimba[6].</t>
+2003 : Durban (Afrique du Sud) ; thème : « Avantages sans frontières » ;
+2014 : Sydney (Australie) ; thème : « Des parcs, la planète et nous : des solutions sources d’inspiration ». Co-présidé par Ali Bongo Ondimba.</t>
         </is>
       </c>
     </row>
